--- a/SUPPLY/Daily_CFS_RR_Independent_ZERO_PRECIP_Jun7_to_Oct31.xlsx
+++ b/SUPPLY/Daily_CFS_RR_Independent_ZERO_PRECIP_Jun7_to_Oct31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpedroja\DWRAT\SUPPLY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F3033C-2E79-4F72-B3B0-5E25EC18693F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECE4E6A-E2EF-485F-B554-F854C452A0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FLOWS_UPPER" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>AF</t>
+  </si>
+  <si>
+    <t>MODIFIED_TOTAL</t>
   </si>
 </sst>
 </file>
@@ -573,14 +576,14 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -938,7 +941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
@@ -981,165 +984,165 @@
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="4">
         <v>44728</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2">
+      <c r="C1" s="5"/>
+      <c r="D1" s="4">
         <v>44729</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2">
+      <c r="E1" s="5"/>
+      <c r="F1" s="4">
         <v>44730</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2">
+      <c r="G1" s="5"/>
+      <c r="H1" s="4">
         <v>44731</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2">
+      <c r="I1" s="5"/>
+      <c r="J1" s="4">
         <v>44732</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2">
+      <c r="K1" s="5"/>
+      <c r="L1" s="4">
         <v>44733</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="2">
+      <c r="M1" s="5"/>
+      <c r="N1" s="4">
         <v>44734</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="2">
+      <c r="O1" s="5"/>
+      <c r="P1" s="4">
         <v>44735</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="2">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="4">
         <v>44736</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="2">
+      <c r="S1" s="5"/>
+      <c r="T1" s="4">
         <v>44737</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="2">
+      <c r="U1" s="5"/>
+      <c r="V1" s="4">
         <v>44738</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="2">
+      <c r="W1" s="5"/>
+      <c r="X1" s="4">
         <v>44739</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="2">
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="4">
         <v>44740</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="2">
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="4">
         <v>44741</v>
       </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="2">
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="4">
         <v>44742</v>
       </c>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="4" t="s">
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2425,6 +2428,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
@@ -2434,12 +2443,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2447,181 +2450,187 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E747B4DE-61EB-40CE-919D-80045614B507}">
-  <dimension ref="A1:AF17"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AF2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AG17" sqref="AG3:AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="4">
         <v>44728</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2">
+      <c r="C1" s="5"/>
+      <c r="D1" s="4">
         <v>44729</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2">
+      <c r="E1" s="5"/>
+      <c r="F1" s="4">
         <v>44730</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="2">
+      <c r="G1" s="5"/>
+      <c r="H1" s="4">
         <v>44731</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2">
+      <c r="I1" s="5"/>
+      <c r="J1" s="4">
         <v>44732</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="2">
+      <c r="K1" s="5"/>
+      <c r="L1" s="4">
         <v>44733</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="2">
+      <c r="M1" s="5"/>
+      <c r="N1" s="4">
         <v>44734</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="2">
+      <c r="O1" s="5"/>
+      <c r="P1" s="4">
         <v>44735</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="2">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="4">
         <v>44736</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="2">
+      <c r="S1" s="5"/>
+      <c r="T1" s="4">
         <v>44737</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="2">
+      <c r="U1" s="5"/>
+      <c r="V1" s="4">
         <v>44738</v>
       </c>
-      <c r="W1" s="3"/>
-      <c r="X1" s="2">
+      <c r="W1" s="5"/>
+      <c r="X1" s="4">
         <v>44739</v>
       </c>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="2">
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="4">
         <v>44740</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="2">
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="4">
         <v>44741</v>
       </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="2">
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="4">
         <v>44742</v>
       </c>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="4" t="s">
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="AG1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AB2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AF2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>14</v>
       </c>
@@ -2718,8 +2727,11 @@
       <c r="AF3">
         <v>14.637928893732127</v>
       </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG3">
+        <v>14.637928893732127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>15</v>
       </c>
@@ -2816,8 +2828,11 @@
       <c r="AF4">
         <v>3.3322114554837352</v>
       </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG4">
+        <v>3.3322114554837352</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>16</v>
       </c>
@@ -2914,8 +2929,11 @@
       <c r="AF5">
         <v>19.061042909046847</v>
       </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG5">
+        <v>19.061042909046847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>17</v>
       </c>
@@ -3012,8 +3030,11 @@
       <c r="AF6">
         <v>8.3106940467124133</v>
       </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG6">
+        <v>8.3106940467124133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>18</v>
       </c>
@@ -3110,8 +3131,11 @@
       <c r="AF7">
         <v>23.702337436327763</v>
       </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG7">
+        <v>23.702337436327763</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>19</v>
       </c>
@@ -3208,8 +3232,11 @@
       <c r="AF8">
         <v>7.1007839348998667</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG8">
+        <v>7.1007839348998667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>20</v>
       </c>
@@ -3306,8 +3333,11 @@
       <c r="AF9">
         <v>114.00923479833639</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG9">
+        <v>114.00923479833639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>21</v>
       </c>
@@ -3404,8 +3434,11 @@
       <c r="AF10">
         <v>45.203035160996635</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG10">
+        <v>45.203035160996635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>22</v>
       </c>
@@ -3502,8 +3535,11 @@
       <c r="AF11">
         <v>157.94285607152969</v>
       </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG11">
+        <v>157.94285607152969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>23</v>
       </c>
@@ -3600,8 +3636,11 @@
       <c r="AF12">
         <v>15.947011965529306</v>
       </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG12">
+        <v>15.947011965529306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>24</v>
       </c>
@@ -3698,8 +3737,11 @@
       <c r="AF13">
         <v>50.439367448185358</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG13">
+        <v>50.439367448185358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>25</v>
       </c>
@@ -3796,8 +3838,11 @@
       <c r="AF14">
         <v>-11.96025897414698</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>26</v>
       </c>
@@ -3894,8 +3939,11 @@
       <c r="AF15">
         <v>-31.497332091120079</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>27</v>
       </c>
@@ -3992,8 +4040,11 @@
       <c r="AF16">
         <v>208.30288515172734</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG16">
+        <v>164.84529408646029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>28</v>
       </c>
@@ -4090,9 +4141,18 @@
       <c r="AF17">
         <v>38.300597146066039</v>
       </c>
+      <c r="AG17">
+        <v>38.300597146066039</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
@@ -4102,12 +4162,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
